--- a/public/static/xlsx/用户列表模版.xlsx
+++ b/public/static/xlsx/用户列表模版.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>已有用户账号</t>
   </si>
@@ -92,12 +92,6 @@
   </si>
   <si>
     <t>wanghaha</t>
-  </si>
-  <si>
-    <t>aaaaaa</t>
-  </si>
-  <si>
-    <t>bbbbbb</t>
   </si>
 </sst>
 </file>
@@ -474,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J18"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
@@ -598,16 +592,6 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/public/static/xlsx/用户列表模版.xlsx
+++ b/public/static/xlsx/用户列表模版.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>已有用户账号</t>
   </si>
@@ -49,6 +49,9 @@
     <t>教授</t>
   </si>
   <si>
+    <t>王师傅</t>
+  </si>
+  <si>
     <t>田师傅</t>
   </si>
   <si>
@@ -64,9 +67,18 @@
     <t>C++</t>
   </si>
   <si>
+    <t>php</t>
+  </si>
+  <si>
     <t>students</t>
   </si>
   <si>
+    <t>xxxxx</t>
+  </si>
+  <si>
+    <t>xxxxfadfa</t>
+  </si>
+  <si>
     <t>nihaonihao</t>
   </si>
   <si>
@@ -85,6 +97,9 @@
     <t>大吃货</t>
   </si>
   <si>
+    <t>小吃货</t>
+  </si>
+  <si>
     <t>我的中路特别稳</t>
   </si>
   <si>
@@ -92,6 +107,15 @@
   </si>
   <si>
     <t>wanghaha</t>
+  </si>
+  <si>
+    <t>nihao</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>nihao11</t>
   </si>
 </sst>
 </file>
@@ -468,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J26"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
@@ -592,6 +616,46 @@
         <v>26</v>
       </c>
     </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/public/static/xlsx/用户列表模版.xlsx
+++ b/public/static/xlsx/用户列表模版.xlsx
@@ -112,10 +112,10 @@
     <t>nihao</t>
   </si>
   <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>nihao11</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>aa</t>
   </si>
 </sst>
 </file>

--- a/public/static/xlsx/用户列表模版.xlsx
+++ b/public/static/xlsx/用户列表模版.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>已有用户账号</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>aa</t>
+  </si>
+  <si>
+    <t>admin</t>
   </si>
 </sst>
 </file>
@@ -492,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J27"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
@@ -656,6 +659,11 @@
         <v>34</v>
       </c>
     </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/public/static/xlsx/用户列表模版.xlsx
+++ b/public/static/xlsx/用户列表模版.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>已有用户账号</t>
   </si>
@@ -110,15 +110,6 @@
   </si>
   <si>
     <t>nihao</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>admin</t>
   </si>
 </sst>
 </file>
@@ -495,7 +486,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J24"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
@@ -649,21 +640,6 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>35</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/public/static/xlsx/用户列表模版.xlsx
+++ b/public/static/xlsx/用户列表模版.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>已有用户账号</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>nihao</t>
+  </si>
+  <si>
+    <t>init</t>
   </si>
 </sst>
 </file>
@@ -486,7 +489,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J25"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
@@ -640,6 +643,11 @@
         <v>32</v>
       </c>
     </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/public/static/xlsx/用户列表模版.xlsx
+++ b/public/static/xlsx/用户列表模版.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>已有用户账号</t>
   </si>
@@ -110,9 +110,6 @@
   </si>
   <si>
     <t>nihao</t>
-  </si>
-  <si>
-    <t>init</t>
   </si>
 </sst>
 </file>
@@ -489,7 +486,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J24"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
@@ -643,11 +640,6 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>33</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/public/static/xlsx/用户列表模版.xlsx
+++ b/public/static/xlsx/用户列表模版.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>已有用户账号</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>nihao</t>
+  </si>
+  <si>
+    <t>newUser</t>
   </si>
 </sst>
 </file>
@@ -486,7 +489,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J25"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
@@ -640,6 +643,11 @@
         <v>32</v>
       </c>
     </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
